--- a/biology/Médecine/Muscle_deltoïde/Muscle_deltoïde.xlsx
+++ b/biology/Médecine/Muscle_deltoïde/Muscle_deltoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_delto%C3%AFde</t>
+          <t>Muscle_deltoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  muscle deltoïde est le muscle externe de l'épaule et forme le moignon de l'épaule. Il est ainsi nommé à cause de sa forme triangulaire rappelant la lettre grecque delta majuscule : Δ.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_delto%C3%AFde</t>
+          <t>Muscle_deltoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le muscle deltoïde comprend trois parties :
 Le faisceau antérieur ou claviculaire nait sur le bord antéro-supérieur du tiers latéral de la clavicule.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_delto%C3%AFde</t>
+          <t>Muscle_deltoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois faisceaux du muscle deltoïde convergent vers la tubérosité deltoïdienne en formant un demi-cône s'enroulant autour de l'humérus.
 Le faisceau antérieur laisse un espace triangulaire entre lui et le muscle grand pectoral : le triangle clavi-pectoral.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_delto%C3%AFde</t>
+          <t>Muscle_deltoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois faisceaux du muscle deltoïde se terminent par un tendon commun, qui vient s'insérer au tiers moyen de la face externe de l'humérus, au niveau de la tubérosité deltoïdienne en forme de V.
 Le faisceau claviculaire se termine sur la branche antérieure, la partie acromiale entre les branches et la partie épineuse sur la branche postérieure.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_delto%C3%AFde</t>
+          <t>Muscle_deltoïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle deltoïde est innervé par des branches issues du nerf axillaire issu du plexus brachial (Racines C5, C6).
 La partie claviculaire est innervée par le nerf du muscle deltoïde issu de par la branche antérieure du nerf axillaire et la partie spinale par celui issu de sa branche postérieure.
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_delto%C3%AFde</t>
+          <t>Muscle_deltoïde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle deltoïde est vascularisé par les artères circonflexes antérieure et postérieure de l'humérus et par l'artère thoraco-acromiale.
 </t>
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_delto%C3%AFde</t>
+          <t>Muscle_deltoïde</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,7 +694,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Différente selon les faisceaux
 Faisceau antérieur : fléchisseur et rotateur médial du bras (ou interne de l'épaule) et antépulsion.
@@ -689,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_delto%C3%AFde</t>
+          <t>Muscle_deltoïde</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,10 +731,12 @@
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est courant de développer le volume, ou la force, des épaules et du deltoïde (comme de nombreux autres muscles : pectoraux, biceps, triceps, trapèzes...) à l'aide d'exercices de musculation, dont un exemple peut être l'élévation latérale d'haltères.
-Les trois faisceaux du deltoïde sont sollicités dans l'exercice du développé couché. Dans ce mouvement, le deltoïde est à la fois moteur, stabilisateur et freinateur[1].
+Les trois faisceaux du deltoïde sont sollicités dans l'exercice du développé couché. Dans ce mouvement, le deltoïde est à la fois moteur, stabilisateur et freinateur.
 </t>
         </is>
       </c>
